--- a/projects/test_building/input/Scenario_HeatingTechnology_Input_Labor.xlsx
+++ b/projects/test_building/input/Scenario_HeatingTechnology_Input_Labor.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26929692-AAD9-3247-BCF0-E2AB3A3789BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="6960" yWindow="4480" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6960" yWindow="4485" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -38,9 +37,6 @@
   </si>
   <si>
     <t>id_heating_system_action</t>
-  </si>
-  <si>
-    <t>person-day</t>
   </si>
   <si>
     <t>2010</t>
@@ -159,11 +155,14 @@
   <si>
     <t>2050</t>
   </si>
+  <si>
+    <t>person-day/kW</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -261,54 +260,54 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AS76" totalsRowShown="0">
-  <autoFilter ref="A1:AS76" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AS76" totalsRowShown="0">
+  <autoFilter ref="A1:AS76"/>
   <tableColumns count="45">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="id_region"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="id_heating_technology" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="id_heating_system_action"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="unit"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="2010"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="2011"/>
-    <tableColumn id="3" xr3:uid="{B09B89CE-3478-A141-AD6F-83F1AFD8B820}" name="2012"/>
-    <tableColumn id="9" xr3:uid="{0B5007DF-7A71-3D4C-9B06-CD6858149B27}" name="2013"/>
-    <tableColumn id="10" xr3:uid="{42C66323-CB00-5D4B-AD30-2D506F081F2D}" name="2014"/>
-    <tableColumn id="11" xr3:uid="{65B81E9A-56AE-F94C-90B9-102AAD98E26C}" name="2015"/>
-    <tableColumn id="12" xr3:uid="{09D9A23F-DB9E-5145-9FD3-15962B6D6B82}" name="2016"/>
-    <tableColumn id="13" xr3:uid="{B8B694BD-0870-0544-B998-1BB89610996C}" name="2017"/>
-    <tableColumn id="14" xr3:uid="{035DE4E7-18B4-5648-9EEE-B166E463B672}" name="2018"/>
-    <tableColumn id="15" xr3:uid="{18F854B3-7CFF-1241-B800-28BB88BAB49D}" name="2019"/>
-    <tableColumn id="16" xr3:uid="{633C193E-EC61-A94D-A409-EBD92C3B3C63}" name="2020"/>
-    <tableColumn id="17" xr3:uid="{034FA90C-A95B-AA49-83D7-74EB365E5EEB}" name="2021"/>
-    <tableColumn id="18" xr3:uid="{F9F33E4A-16F8-2F4F-9AED-BD0190203DF7}" name="2022"/>
-    <tableColumn id="19" xr3:uid="{72FA8DDD-075F-C54B-AFFB-66BDFF7F5D75}" name="2023"/>
-    <tableColumn id="20" xr3:uid="{8132AFA2-506C-6643-B1D8-EBC2996F06B6}" name="2024"/>
-    <tableColumn id="21" xr3:uid="{C29FAD24-CDD8-5746-B9A0-0068B14AAD2D}" name="2025"/>
-    <tableColumn id="22" xr3:uid="{AC2EB951-18F6-8347-9D97-1B9A56FA6928}" name="2026"/>
-    <tableColumn id="23" xr3:uid="{FD93BE31-0F59-9740-A1C5-D3E9507DC228}" name="2027"/>
-    <tableColumn id="24" xr3:uid="{CF2243D4-6D79-454A-9745-7250ECBACC87}" name="2028"/>
-    <tableColumn id="25" xr3:uid="{BA8F00D8-44CA-7F45-8853-EFB201000828}" name="2029"/>
-    <tableColumn id="26" xr3:uid="{CEAA75EC-9EF4-3249-84B5-EA11B515CB37}" name="2030"/>
-    <tableColumn id="27" xr3:uid="{3F22781A-18B3-6040-B4F8-4D267B68A12C}" name="2031"/>
-    <tableColumn id="28" xr3:uid="{FFBA3467-88A8-6E41-BA03-659EB0D47555}" name="2032"/>
-    <tableColumn id="29" xr3:uid="{1B67664E-BB34-604E-A01A-5BC3060A2807}" name="2033"/>
-    <tableColumn id="30" xr3:uid="{443FA2F0-9434-FE4F-9EF8-6231F7BAEC06}" name="2034"/>
-    <tableColumn id="31" xr3:uid="{836794D1-7C99-0D4C-8D08-C9463B7EE365}" name="2035"/>
-    <tableColumn id="32" xr3:uid="{FDD926A9-45EE-3C43-A659-5A261C6EC5EA}" name="2036"/>
-    <tableColumn id="33" xr3:uid="{4C1EB9D1-6DED-244C-A6D0-CA77400954EA}" name="2037"/>
-    <tableColumn id="34" xr3:uid="{EFC09C87-9026-EB49-A0D5-E68418074AB7}" name="2038"/>
-    <tableColumn id="35" xr3:uid="{62399301-BBC0-D34B-B021-6E3E3C0AD93B}" name="2039"/>
-    <tableColumn id="36" xr3:uid="{E01C6014-2F33-6142-AB51-8EE9214355C0}" name="2040"/>
-    <tableColumn id="37" xr3:uid="{197EF269-95D9-DD4F-9EF5-32C9E28FF402}" name="2041"/>
-    <tableColumn id="38" xr3:uid="{014C7100-CB94-2B4C-A4EA-2A0456B1E845}" name="2042"/>
-    <tableColumn id="39" xr3:uid="{48E93C7F-0CD1-E04E-B9E0-4BB023577E6C}" name="2043"/>
-    <tableColumn id="40" xr3:uid="{8633EE0B-33EE-FD4E-ADBE-CC3FAE33F487}" name="2044"/>
-    <tableColumn id="41" xr3:uid="{A56FF29F-F725-964E-AB4D-F6A051A5225B}" name="2045"/>
-    <tableColumn id="42" xr3:uid="{E254DE01-762F-4F4E-A057-1013A5CBEE80}" name="2046"/>
-    <tableColumn id="43" xr3:uid="{E72D5CF4-F8CE-1846-A479-4E851B527BA9}" name="2047"/>
-    <tableColumn id="44" xr3:uid="{7EB093DA-4492-9942-B908-FCF70192164D}" name="2048"/>
-    <tableColumn id="45" xr3:uid="{363A65D0-FDBC-5E4D-9F7F-3A7C08D4DC94}" name="2049"/>
-    <tableColumn id="46" xr3:uid="{D3F5369C-EB61-904D-B6A8-D6DA2F6E29B9}" name="2050"/>
+    <tableColumn id="2" name="id_region"/>
+    <tableColumn id="4" name="id_heating_technology" dataDxfId="0"/>
+    <tableColumn id="5" name="id_heating_system_action"/>
+    <tableColumn id="6" name="unit"/>
+    <tableColumn id="7" name="2010"/>
+    <tableColumn id="8" name="2011"/>
+    <tableColumn id="3" name="2012"/>
+    <tableColumn id="9" name="2013"/>
+    <tableColumn id="10" name="2014"/>
+    <tableColumn id="11" name="2015"/>
+    <tableColumn id="12" name="2016"/>
+    <tableColumn id="13" name="2017"/>
+    <tableColumn id="14" name="2018"/>
+    <tableColumn id="15" name="2019"/>
+    <tableColumn id="16" name="2020"/>
+    <tableColumn id="17" name="2021"/>
+    <tableColumn id="18" name="2022"/>
+    <tableColumn id="19" name="2023"/>
+    <tableColumn id="20" name="2024"/>
+    <tableColumn id="21" name="2025"/>
+    <tableColumn id="22" name="2026"/>
+    <tableColumn id="23" name="2027"/>
+    <tableColumn id="24" name="2028"/>
+    <tableColumn id="25" name="2029"/>
+    <tableColumn id="26" name="2030"/>
+    <tableColumn id="27" name="2031"/>
+    <tableColumn id="28" name="2032"/>
+    <tableColumn id="29" name="2033"/>
+    <tableColumn id="30" name="2034"/>
+    <tableColumn id="31" name="2035"/>
+    <tableColumn id="32" name="2036"/>
+    <tableColumn id="33" name="2037"/>
+    <tableColumn id="34" name="2038"/>
+    <tableColumn id="35" name="2039"/>
+    <tableColumn id="36" name="2040"/>
+    <tableColumn id="37" name="2041"/>
+    <tableColumn id="38" name="2042"/>
+    <tableColumn id="39" name="2043"/>
+    <tableColumn id="40" name="2044"/>
+    <tableColumn id="41" name="2045"/>
+    <tableColumn id="42" name="2046"/>
+    <tableColumn id="43" name="2047"/>
+    <tableColumn id="44" name="2048"/>
+    <tableColumn id="45" name="2049"/>
+    <tableColumn id="46" name="2050"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -576,24 +575,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="7.1640625" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="7.140625" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -607,34 +606,34 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>14</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>15</v>
-      </c>
-      <c r="N1" t="s">
-        <v>16</v>
       </c>
       <c r="O1" t="s">
         <v>2</v>
@@ -643,94 +642,94 @@
         <v>3</v>
       </c>
       <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>21</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>22</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>23</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>28</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>29</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>30</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>31</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>32</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>33</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>34</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>35</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>36</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>37</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>38</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>39</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>40</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>41</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>42</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>43</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>44</v>
       </c>
-      <c r="AS1" t="s">
-        <v>45</v>
-      </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>9</v>
       </c>
@@ -741,7 +740,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -867,7 +866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>9</v>
       </c>
@@ -878,7 +877,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1004,7 +1003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>9</v>
       </c>
@@ -1015,7 +1014,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1141,7 +1140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>9</v>
       </c>
@@ -1152,7 +1151,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1278,7 +1277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>9</v>
       </c>
@@ -1289,7 +1288,7 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1415,7 +1414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>9</v>
       </c>
@@ -1426,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1552,7 +1551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>9</v>
       </c>
@@ -1563,7 +1562,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1689,7 +1688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -1700,7 +1699,7 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1826,7 +1825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1837,7 +1836,7 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1963,7 +1962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1974,7 +1973,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -2100,7 +2099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -2111,7 +2110,7 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -2237,7 +2236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9</v>
       </c>
@@ -2248,7 +2247,7 @@
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -2374,7 +2373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>9</v>
       </c>
@@ -2385,7 +2384,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -2511,7 +2510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>9</v>
       </c>
@@ -2522,7 +2521,7 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -2648,7 +2647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>9</v>
       </c>
@@ -2659,7 +2658,7 @@
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -2785,7 +2784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>9</v>
       </c>
@@ -2796,7 +2795,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -2922,7 +2921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>9</v>
       </c>
@@ -2933,7 +2932,7 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -3059,7 +3058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>9</v>
       </c>
@@ -3070,7 +3069,7 @@
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -3196,7 +3195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>9</v>
       </c>
@@ -3207,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -3333,7 +3332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>9</v>
       </c>
@@ -3344,7 +3343,7 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -3470,7 +3469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>9</v>
       </c>
@@ -3481,7 +3480,7 @@
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -3607,7 +3606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>9</v>
       </c>
@@ -3618,7 +3617,7 @@
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -3744,7 +3743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>9</v>
       </c>
@@ -3755,7 +3754,7 @@
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -3881,7 +3880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>9</v>
       </c>
@@ -3892,7 +3891,7 @@
         <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -4018,7 +4017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>9</v>
       </c>
@@ -4029,7 +4028,7 @@
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -4155,7 +4154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>9</v>
       </c>
@@ -4166,7 +4165,7 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -4292,7 +4291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>9</v>
       </c>
@@ -4303,7 +4302,7 @@
         <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -4429,7 +4428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>9</v>
       </c>
@@ -4440,7 +4439,7 @@
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -4566,7 +4565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>9</v>
       </c>
@@ -4577,7 +4576,7 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -4703,7 +4702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>9</v>
       </c>
@@ -4714,7 +4713,7 @@
         <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -4840,7 +4839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>9</v>
       </c>
@@ -4851,7 +4850,7 @@
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -4977,7 +4976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>9</v>
       </c>
@@ -4988,7 +4987,7 @@
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -5114,7 +5113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>9</v>
       </c>
@@ -5125,7 +5124,7 @@
         <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -5251,7 +5250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>9</v>
       </c>
@@ -5262,7 +5261,7 @@
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -5388,7 +5387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>9</v>
       </c>
@@ -5399,7 +5398,7 @@
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -5525,7 +5524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>9</v>
       </c>
@@ -5536,7 +5535,7 @@
         <v>3</v>
       </c>
       <c r="D37" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -5662,7 +5661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>9</v>
       </c>
@@ -5673,7 +5672,7 @@
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -5799,7 +5798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>9</v>
       </c>
@@ -5810,7 +5809,7 @@
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -5936,7 +5935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>9</v>
       </c>
@@ -5947,7 +5946,7 @@
         <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -6073,7 +6072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>9</v>
       </c>
@@ -6084,7 +6083,7 @@
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -6210,7 +6209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>9</v>
       </c>
@@ -6221,7 +6220,7 @@
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -6347,7 +6346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>9</v>
       </c>
@@ -6358,7 +6357,7 @@
         <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -6484,7 +6483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>9</v>
       </c>
@@ -6495,7 +6494,7 @@
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -6621,7 +6620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>9</v>
       </c>
@@ -6632,7 +6631,7 @@
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -6758,7 +6757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>9</v>
       </c>
@@ -6769,7 +6768,7 @@
         <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -6895,7 +6894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>9</v>
       </c>
@@ -6906,7 +6905,7 @@
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -7032,7 +7031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>9</v>
       </c>
@@ -7043,7 +7042,7 @@
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -7169,7 +7168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>9</v>
       </c>
@@ -7180,7 +7179,7 @@
         <v>3</v>
       </c>
       <c r="D49" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -7306,7 +7305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>9</v>
       </c>
@@ -7317,7 +7316,7 @@
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -7443,7 +7442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>9</v>
       </c>
@@ -7454,7 +7453,7 @@
         <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -7580,7 +7579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>9</v>
       </c>
@@ -7591,7 +7590,7 @@
         <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -7717,7 +7716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>9</v>
       </c>
@@ -7728,7 +7727,7 @@
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -7854,7 +7853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>9</v>
       </c>
@@ -7865,7 +7864,7 @@
         <v>2</v>
       </c>
       <c r="D54" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -7991,7 +7990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>9</v>
       </c>
@@ -8002,7 +8001,7 @@
         <v>3</v>
       </c>
       <c r="D55" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -8128,7 +8127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>9</v>
       </c>
@@ -8139,7 +8138,7 @@
         <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -8265,7 +8264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>9</v>
       </c>
@@ -8276,7 +8275,7 @@
         <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -8402,7 +8401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>9</v>
       </c>
@@ -8413,7 +8412,7 @@
         <v>3</v>
       </c>
       <c r="D58" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -8539,7 +8538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>9</v>
       </c>
@@ -8550,7 +8549,7 @@
         <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -8676,7 +8675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>9</v>
       </c>
@@ -8687,7 +8686,7 @@
         <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -8813,7 +8812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>9</v>
       </c>
@@ -8824,7 +8823,7 @@
         <v>3</v>
       </c>
       <c r="D61" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -8950,7 +8949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>9</v>
       </c>
@@ -8961,7 +8960,7 @@
         <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -9087,7 +9086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>9</v>
       </c>
@@ -9098,7 +9097,7 @@
         <v>2</v>
       </c>
       <c r="D63" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -9224,7 +9223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>9</v>
       </c>
@@ -9235,7 +9234,7 @@
         <v>3</v>
       </c>
       <c r="D64" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -9361,7 +9360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>9</v>
       </c>
@@ -9372,7 +9371,7 @@
         <v>1</v>
       </c>
       <c r="D65" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -9498,7 +9497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>9</v>
       </c>
@@ -9509,7 +9508,7 @@
         <v>2</v>
       </c>
       <c r="D66" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -9635,7 +9634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>9</v>
       </c>
@@ -9646,7 +9645,7 @@
         <v>3</v>
       </c>
       <c r="D67" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -9772,7 +9771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>9</v>
       </c>
@@ -9783,7 +9782,7 @@
         <v>1</v>
       </c>
       <c r="D68" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -9909,7 +9908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>9</v>
       </c>
@@ -9920,7 +9919,7 @@
         <v>2</v>
       </c>
       <c r="D69" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -10046,7 +10045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>9</v>
       </c>
@@ -10057,7 +10056,7 @@
         <v>3</v>
       </c>
       <c r="D70" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -10183,7 +10182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>9</v>
       </c>
@@ -10194,7 +10193,7 @@
         <v>1</v>
       </c>
       <c r="D71" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -10320,7 +10319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>9</v>
       </c>
@@ -10331,7 +10330,7 @@
         <v>2</v>
       </c>
       <c r="D72" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -10457,7 +10456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>9</v>
       </c>
@@ -10468,7 +10467,7 @@
         <v>3</v>
       </c>
       <c r="D73" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -10594,7 +10593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>9</v>
       </c>
@@ -10605,7 +10604,7 @@
         <v>1</v>
       </c>
       <c r="D74" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -10731,7 +10730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>9</v>
       </c>
@@ -10742,7 +10741,7 @@
         <v>2</v>
       </c>
       <c r="D75" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -10868,7 +10867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>9</v>
       </c>
@@ -10879,7 +10878,7 @@
         <v>3</v>
       </c>
       <c r="D76" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E76">
         <v>1</v>

--- a/projects/test_building/input/Scenario_HeatingTechnology_Input_Labor.xlsx
+++ b/projects/test_building/input/Scenario_HeatingTechnology_Input_Labor.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="6960" yWindow="4490" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="6960" yWindow="4485" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -579,20 +579,20 @@
   <dimension ref="A1:AS76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.453125" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="7.1796875" customWidth="1"/>
-    <col min="7" max="7" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="7.140625" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -729,7 +729,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>9</v>
       </c>
@@ -866,7 +866,7 @@
         <v>44.3</v>
       </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>9</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>44.3</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>9</v>
       </c>
@@ -1140,7 +1140,7 @@
         <v>83.1</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>9</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>43.3</v>
       </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>9</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>43.3</v>
       </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>9</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>90.7</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>9</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>90.1</v>
       </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2099,7 +2099,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -2236,7 +2236,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9</v>
       </c>
@@ -2373,7 +2373,7 @@
         <v>148.80000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>9</v>
       </c>
@@ -2510,7 +2510,7 @@
         <v>43.3</v>
       </c>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>9</v>
       </c>
@@ -2647,7 +2647,7 @@
         <v>43.3</v>
       </c>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>9</v>
       </c>
@@ -2784,7 +2784,7 @@
         <v>90.7</v>
       </c>
     </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>9</v>
       </c>
@@ -2921,7 +2921,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>9</v>
       </c>
@@ -3058,7 +3058,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>9</v>
       </c>
@@ -3195,7 +3195,7 @@
         <v>148.80000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>9</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>80.7</v>
       </c>
     </row>
-    <row r="21" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>9</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>80.7</v>
       </c>
     </row>
-    <row r="22" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>9</v>
       </c>
@@ -3606,7 +3606,7 @@
         <v>119.5</v>
       </c>
     </row>
-    <row r="23" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>9</v>
       </c>
@@ -3743,7 +3743,7 @@
         <v>80.7</v>
       </c>
     </row>
-    <row r="24" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>9</v>
       </c>
@@ -3880,7 +3880,7 @@
         <v>80.7</v>
       </c>
     </row>
-    <row r="25" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>9</v>
       </c>
@@ -4017,7 +4017,7 @@
         <v>119.5</v>
       </c>
     </row>
-    <row r="26" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>9</v>
       </c>
@@ -4154,7 +4154,7 @@
         <v>80.7</v>
       </c>
     </row>
-    <row r="27" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>9</v>
       </c>
@@ -4291,7 +4291,7 @@
         <v>80.7</v>
       </c>
     </row>
-    <row r="28" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>9</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>119.5</v>
       </c>
     </row>
-    <row r="29" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>9</v>
       </c>
@@ -4565,7 +4565,7 @@
         <v>56.8</v>
       </c>
     </row>
-    <row r="30" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>9</v>
       </c>
@@ -4702,7 +4702,7 @@
         <v>56.8</v>
       </c>
     </row>
-    <row r="31" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>9</v>
       </c>
@@ -4839,7 +4839,7 @@
         <v>95.6</v>
       </c>
     </row>
-    <row r="32" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>9</v>
       </c>
@@ -4976,7 +4976,7 @@
         <v>174.8</v>
       </c>
     </row>
-    <row r="33" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>9</v>
       </c>
@@ -5113,7 +5113,7 @@
         <v>174.8</v>
       </c>
     </row>
-    <row r="34" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>9</v>
       </c>
@@ -5250,7 +5250,7 @@
         <v>213.6</v>
       </c>
     </row>
-    <row r="35" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>9</v>
       </c>
@@ -5387,7 +5387,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="36" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>9</v>
       </c>
@@ -5524,7 +5524,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="37" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>9</v>
       </c>
@@ -5661,7 +5661,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>9</v>
       </c>
@@ -5798,7 +5798,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>9</v>
       </c>
@@ -5935,7 +5935,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>9</v>
       </c>
@@ -6072,7 +6072,7 @@
         <v>45.9</v>
       </c>
     </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>9</v>
       </c>
@@ -6209,7 +6209,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>9</v>
       </c>
@@ -6346,7 +6346,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="43" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>9</v>
       </c>
@@ -6483,7 +6483,7 @@
         <v>156.80000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>9</v>
       </c>
@@ -6620,7 +6620,7 @@
         <v>43.3</v>
       </c>
     </row>
-    <row r="45" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>9</v>
       </c>
@@ -6757,7 +6757,7 @@
         <v>43.3</v>
       </c>
     </row>
-    <row r="46" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>9</v>
       </c>
@@ -6894,7 +6894,7 @@
         <v>80.8</v>
       </c>
     </row>
-    <row r="47" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>9</v>
       </c>
@@ -7031,7 +7031,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>9</v>
       </c>
@@ -7168,7 +7168,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>9</v>
       </c>
@@ -7305,7 +7305,7 @@
         <v>82.9</v>
       </c>
     </row>
-    <row r="50" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>9</v>
       </c>
@@ -7442,7 +7442,7 @@
         <v>56.8</v>
       </c>
     </row>
-    <row r="51" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>9</v>
       </c>
@@ -7579,7 +7579,7 @@
         <v>56.8</v>
       </c>
     </row>
-    <row r="52" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>9</v>
       </c>
@@ -7716,7 +7716,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="53" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>9</v>
       </c>
@@ -7853,7 +7853,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="54" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>9</v>
       </c>
@@ -7990,7 +7990,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="55" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>9</v>
       </c>
@@ -8127,7 +8127,7 @@
         <v>37.299999999999997</v>
       </c>
     </row>
-    <row r="56" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>9</v>
       </c>
@@ -8264,7 +8264,7 @@
         <v>32.4</v>
       </c>
     </row>
-    <row r="57" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>9</v>
       </c>
@@ -8401,7 +8401,7 @@
         <v>32.4</v>
       </c>
     </row>
-    <row r="58" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>9</v>
       </c>
@@ -8538,7 +8538,7 @@
         <v>61.2</v>
       </c>
     </row>
-    <row r="59" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>9</v>
       </c>
@@ -8675,7 +8675,7 @@
         <v>28.8</v>
       </c>
     </row>
-    <row r="60" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>9</v>
       </c>
@@ -8812,7 +8812,7 @@
         <v>28.8</v>
       </c>
     </row>
-    <row r="61" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>9</v>
       </c>
@@ -8949,7 +8949,7 @@
         <v>42.8</v>
       </c>
     </row>
-    <row r="62" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>9</v>
       </c>
@@ -9086,7 +9086,7 @@
         <v>86.8</v>
       </c>
     </row>
-    <row r="63" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>9</v>
       </c>
@@ -9223,7 +9223,7 @@
         <v>86.8</v>
       </c>
     </row>
-    <row r="64" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>9</v>
       </c>
@@ -9360,7 +9360,7 @@
         <v>108.2</v>
       </c>
     </row>
-    <row r="65" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>9</v>
       </c>
@@ -9497,7 +9497,7 @@
         <v>32.4</v>
       </c>
     </row>
-    <row r="66" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>9</v>
       </c>
@@ -9634,7 +9634,7 @@
         <v>32.4</v>
       </c>
     </row>
-    <row r="67" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>9</v>
       </c>
@@ -9771,7 +9771,7 @@
         <v>61.2</v>
       </c>
     </row>
-    <row r="68" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>9</v>
       </c>
@@ -9908,7 +9908,7 @@
         <v>86.8</v>
       </c>
     </row>
-    <row r="69" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>9</v>
       </c>
@@ -10045,7 +10045,7 @@
         <v>86.8</v>
       </c>
     </row>
-    <row r="70" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>9</v>
       </c>
@@ -10182,7 +10182,7 @@
         <v>108.2</v>
       </c>
     </row>
-    <row r="71" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>9</v>
       </c>
@@ -10319,7 +10319,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="72" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>9</v>
       </c>
@@ -10456,7 +10456,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="73" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>9</v>
       </c>
@@ -10593,7 +10593,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="74" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>9</v>
       </c>
@@ -10730,7 +10730,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="75" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>9</v>
       </c>
@@ -10867,7 +10867,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="76" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>9</v>
       </c>
